--- a/data/trans_orig/P79A1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79A1_2023-Provincia-trans_orig.xlsx
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5301</v>
+        <v>4976</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.329701350694642</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8211141433995023</v>
+        <v>0.7707017510332921</v>
       </c>
     </row>
     <row r="14">
@@ -1357,16 +1357,16 @@
         <v>4327</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1289</v>
+        <v>1480</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>6456</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.670298649305358</v>
+        <v>0.6702986493053579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1996813192283359</v>
+        <v>0.2292982489667079</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1644,7 +1644,7 @@
         <v>7774</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4828</v>
+        <v>4865</v>
       </c>
       <c r="T19" s="5" t="n">
         <v>8790</v>
@@ -1653,7 +1653,7 @@
         <v>0.8843844812215383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5492387249800722</v>
+        <v>0.5534868042980052</v>
       </c>
       <c r="W19" s="6" t="n">
         <v>1</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3962</v>
+        <v>3925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1156155187784616</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4507612750199277</v>
+        <v>0.4465131957019951</v>
       </c>
     </row>
     <row r="21">
@@ -1824,16 +1824,16 @@
         <v>14733</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11737</v>
+        <v>11783</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>15418</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9555421663659673</v>
+        <v>0.9555421663659672</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7612516153137302</v>
+        <v>0.7642228012643392</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1845,16 +1845,16 @@
         <v>38639</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35709</v>
+        <v>35881</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>39324</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9825697284042794</v>
+        <v>0.9825697284042791</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9080688541270582</v>
+        <v>0.9124565125833414</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3681</v>
+        <v>3635</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04445783363403259</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2387483846862705</v>
+        <v>0.2357771987356613</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3615</v>
+        <v>3443</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01743027159572058</v>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09193114587294196</v>
+        <v>0.08754348741665856</v>
       </c>
     </row>
     <row r="24">
@@ -2012,19 +2012,19 @@
         <v>30961</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24705</v>
+        <v>24518</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33719</v>
+        <v>33707</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8911634239501254</v>
+        <v>0.8911634239501253</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7110862980781096</v>
+        <v>0.705715058155631</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.970559150217009</v>
+        <v>0.9702157100088056</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -2033,19 +2033,19 @@
         <v>22604</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18793</v>
+        <v>18966</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24806</v>
+        <v>24818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.886454536638155</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.737008594944676</v>
+        <v>0.7437806535327599</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9728278536387069</v>
+        <v>0.9733082937331488</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2054,19 +2054,19 @@
         <v>53565</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46745</v>
+        <v>47216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57291</v>
+        <v>57359</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8891702126010994</v>
+        <v>0.8891702126010995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7759641094291435</v>
+        <v>0.7837797016899024</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9510349102973898</v>
+        <v>0.9521533868826897</v>
       </c>
     </row>
     <row r="26">
@@ -2083,19 +2083,19 @@
         <v>3781</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10037</v>
+        <v>10224</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1088365760498748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02944084978299099</v>
+        <v>0.02978428999119431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2889137019218905</v>
+        <v>0.2942849418443691</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2104,19 +2104,19 @@
         <v>2895</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6706</v>
+        <v>6533</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1135454633618452</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02717214636129301</v>
+        <v>0.02669170626685134</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2629914050553239</v>
+        <v>0.2562193464672403</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2125,19 +2125,19 @@
         <v>6676</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2950</v>
+        <v>2882</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13496</v>
+        <v>13025</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1108297873989006</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04896508970260999</v>
+        <v>0.04784661311731012</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2240358905708565</v>
+        <v>0.2162202983100977</v>
       </c>
     </row>
     <row r="27">
